--- a/running stat.xlsx
+++ b/running stat.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\py files\running stat\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\py files\running stat\Running-statistics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EA770C1-9397-4962-BE05-ACB988D1C9A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{979DD73F-770C-408A-AF84-6220D3653D0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -90,13 +90,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1430,16 +1429,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>338843</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>65574</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>63289</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>210391</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>46914</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>546722</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>167556</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1730,10 +1729,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F91"/>
+  <dimension ref="A1:F92"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView tabSelected="1" topLeftCell="A78" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="D93" sqref="D93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1746,19 +1745,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" t="s">
         <v>1</v>
       </c>
     </row>
@@ -3381,6 +3380,23 @@
         <v>6.44</v>
       </c>
       <c r="F91" s="1"/>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A92" s="2">
+        <v>45897</v>
+      </c>
+      <c r="B92" s="3">
+        <v>4.3194444444444445E-2</v>
+      </c>
+      <c r="C92" s="1">
+        <v>6.55</v>
+      </c>
+      <c r="D92" s="4">
+        <v>8.6</v>
+      </c>
+      <c r="E92" s="1">
+        <v>8.98</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
